--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_539.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_539.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32038-d75946-Reviews-Motel_6_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Motel-6-Los-Angeles-Baldwin-Park.h1037695.Hotel-Information?chkin=6%2F27%2F2018&amp;chkout=6%2F28%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1529085140208&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=2b31eb43-e08d-46d0-ada1-3265ca08aad6&amp;mctc=9&amp;exp_dp=71.99&amp;exp_ts=1529085140723&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +538,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +570,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_539.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_539.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,198 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75946-r497947289-Motel_6_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>32038</t>
+  </si>
+  <si>
+    <t>75946</t>
+  </si>
+  <si>
+    <t>497947289</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>My</t>
+  </si>
+  <si>
+    <t>Ladies checking in nice, poliet and making the best of sold out situation. Room is, claustrophobic, so small. Clean. Expect to feel like you are being hit with a squirt gun, every time you turn on the sink. The water saver sprays the mirror and you. Pretty much same at all motel 6. Coffee is at 6:00 am. We 3 times and 6:20 commented I need to go-to work. Not here to vacation. When paying nearly $100. I expect the coffee to be ready. Spend more days in hotels than home. I cancelled another hotel just to be 10 min. Closer to work. Would have been better to stay there and been ready to roll. I called ahead saying needed microwave and refrigerator. They said yes, but didn't say you would have to go to office and wait until they have time to warm it. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Ladies checking in nice, poliet and making the best of sold out situation. Room is, claustrophobic, so small. Clean. Expect to feel like you are being hit with a squirt gun, every time you turn on the sink. The water saver sprays the mirror and you. Pretty much same at all motel 6. Coffee is at 6:00 am. We 3 times and 6:20 commented I need to go-to work. Not here to vacation. When paying nearly $100. I expect the coffee to be ready. Spend more days in hotels than home. I cancelled another hotel just to be 10 min. Closer to work. Would have been better to stay there and been ready to roll. I called ahead saying needed microwave and refrigerator. They said yes, but didn't say you would have to go to office and wait until they have time to warm it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75946-r490809631-Motel_6_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>490809631</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>Sleeping in a Closet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was very small. The queen size bed is only a full. Flat pillows. No fridge or micro available. Flat screen TV worked well...but only 40 channels. On the plus side the heater/AC unit worked well. Hot water was fine. Wi-fi painfully slow. Room is small. Never felt unsafe. Walmart across the street . A few extended stay guests and noticed a couple of working girls heading out for the night. Pool is small... But ok.  Here for work but wouldn't stay on my own dime. </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75946-r417347624-Motel_6_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>417347624</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>OK as a stop off point.</t>
+  </si>
+  <si>
+    <t>After reading the reviews I was very worried. However idealised that they were very dated and we were desperate. The room was clean and everything was fine. It was basic but that was reflected in the price. The area around the motel is OK. There are plenty of restaurants and shops that you can walk to. The pool looked a bit dirty but the surrounding pool area was nice. Cheap and cheerful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75946-r326157866-Motel_6_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>326157866</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Bog Standard Motel 6</t>
+  </si>
+  <si>
+    <t>Spent one night here and as in any motel 6 - one night is enough. This has wafer thin walls so can hear everything that is going on around and about. The good thing is there is plenty of restaurants and a Walmart near by. From my experience it is exactly like every other motel I have stayed in. So if you have been to a motel 6 before you won't be disappointed.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75946-r273153776-Motel_6_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>273153776</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Dirty and loud</t>
+  </si>
+  <si>
+    <t>I don't expect much from a motel 6 cause I know that it's a budget hotel. But I do expect it to be at least clean. When we walked into our hotel room,  our restroom was filthy. There was pee on the toilet seat. Gross. Our neighbors where up all night arguing. I could swear the guy up stairs must have been some kind of Tweaker, because he was pacing all night long.  We could not sleep a wink.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Los Angeles - Baldwin Park, responded to this reviewResponded May 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2015</t>
+  </si>
+  <si>
+    <t>I don't expect much from a motel 6 cause I know that it's a budget hotel. But I do expect it to be at least clean. When we walked into our hotel room,  our restroom was filthy. There was pee on the toilet seat. Gross. Our neighbors where up all night arguing. I could swear the guy up stairs must have been some kind of Tweaker, because he was pacing all night long.  We could not sleep a wink.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75946-r192008798-Motel_6_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>192008798</t>
+  </si>
+  <si>
+    <t>01/25/2014</t>
+  </si>
+  <si>
+    <t>Wouldn't go back till the updates are done.</t>
+  </si>
+  <si>
+    <t>Tried to check in at 7 a.m. I usually can at any motel 6 I've stayed at. But the girl at front desk claimed all the rooms were full which I know was lie. Property was clean. Kind of in a ghetto area. You could tell because you had to use a room key to get inside to the INSIDE of the hotel where all the rooms are. Also they are doing construction and updating all the rooms which is great. But when you first enter the parking lot, there are signs saying "come check out or new rooms" like they were updated already. They weren't. That was the main reason I wanted to stay there. Very disappointed. Overall, a motel 6 is a motel 6. You really can't find anything cheaper. Only stayed one night. To sleep and shower. But like I said, wouldn't go back till renovations are done!MoreShow less</t>
+  </si>
+  <si>
+    <t>Tried to check in at 7 a.m. I usually can at any motel 6 I've stayed at. But the girl at front desk claimed all the rooms were full which I know was lie. Property was clean. Kind of in a ghetto area. You could tell because you had to use a room key to get inside to the INSIDE of the hotel where all the rooms are. Also they are doing construction and updating all the rooms which is great. But when you first enter the parking lot, there are signs saying "come check out or new rooms" like they were updated already. They weren't. That was the main reason I wanted to stay there. Very disappointed. Overall, a motel 6 is a motel 6. You really can't find anything cheaper. Only stayed one night. To sleep and shower. But like I said, wouldn't go back till renovations are done!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75946-r168298285-Motel_6_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>168298285</t>
+  </si>
+  <si>
+    <t>07/20/2013</t>
+  </si>
+  <si>
+    <t>No no and more no</t>
+  </si>
+  <si>
+    <t>We understood that cheap hotels aren't the best. But this on took the cake. The bad was not made. the nonsmoking room came complete with an ashtray and burn holes in the sheets and comforter. There was a dank musky, smokey odor. And there were bugs. We couldn't stay. The night registrar made it very difficult to get our money back. But when it was explained about my sisters allegic reation to smoke, she changed her mind. (Legal repercussions). Don't waste your time or effort. As all others said, keep driving.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75946-r155668200-Motel_6_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>155668200</t>
+  </si>
+  <si>
+    <t>03/25/2013</t>
+  </si>
+  <si>
+    <t>Dirty rooms</t>
+  </si>
+  <si>
+    <t>I traveled to motel 6 with my kids and husband just to stay over night after a trip to universal studios we got to the motel tired just looking for a clean and conftable place to sleep we get to the room smelling like strong odor of urine the beds were dirty the shower was dirty with mold on it what a bad experience and discussed with the bad hygiene the health department need to visit this hotel it's bad sanitation for the people .</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75946-r116194001-Motel_6_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
+  </si>
+  <si>
+    <t>116194001</t>
+  </si>
+  <si>
+    <t>08/02/2011</t>
+  </si>
+  <si>
+    <t>Keep on driving to the Super 8!!</t>
+  </si>
+  <si>
+    <t>The first thing one notices at this God-forsaken place is the unique and overwhelming mildue smell in the rooms.  Trying to make the best of it, we prepared to settle in for the night only to find the sheets all bunched up under the bedspread, leaving us wondering if we were crawling into clean sheets!  One of the beds was clearly broken, as it had quite a noticeable slope to one side.  The management was not helpful in the least.  They offered to switch our room, yet when we walked into it, the smell was even worse.   Never in my life have I been forced to check out of a motel 2 hours after checking in.  In the end,  they were unwilling to refund even a portion of our stay, and the manager was unable to be reached by phone.  They require you contact them by fax. My advice? Keep drivin!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>The first thing one notices at this God-forsaken place is the unique and overwhelming mildue smell in the rooms.  Trying to make the best of it, we prepared to settle in for the night only to find the sheets all bunched up under the bedspread, leaving us wondering if we were crawling into clean sheets!  One of the beds was clearly broken, as it had quite a noticeable slope to one side.  The management was not helpful in the least.  They offered to switch our room, yet when we walked into it, the smell was even worse.   Never in my life have I been forced to check out of a motel 2 hours after checking in.  In the end,  they were unwilling to refund even a portion of our stay, and the manager was unable to be reached by phone.  They require you contact them by fax. My advice? Keep drivin!!More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +837,553 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11150</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11150</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11150</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11150</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11150</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11150</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11150</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11150</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11150</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>99</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_539.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_539.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Lifeis2good2stopnow</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>Ladies checking in nice, poliet and making the best of sold out situation. Room is, claustrophobic, so small. Clean. Expect to feel like you are being hit with a squirt gun, every time you turn on the sink. The water saver sprays the mirror and you. Pretty much same at all motel 6. Coffee is at 6:00 am. We 3 times and 6:20 commented I need to go-to work. Not here to vacation. When paying nearly $100. I expect the coffee to be ready. Spend more days in hotels than home. I cancelled another hotel just to be 10 min. Closer to work. Would have been better to stay there and been ready to roll. I called ahead saying needed microwave and refrigerator. They said yes, but didn't say you would have to go to office and wait until they have time to warm it. More</t>
   </si>
   <si>
+    <t>brkinlv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75946-r490809631-Motel_6_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Stennyhouse</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75946-r417347624-Motel_6_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t>After reading the reviews I was very worried. However idealised that they were very dated and we were desperate. The room was clean and everything was fine. It was basic but that was reflected in the price. The area around the motel is OK. There are plenty of restaurants and shops that you can walk to. The pool looked a bit dirty but the surrounding pool area was nice. Cheap and cheerful.</t>
   </si>
   <si>
+    <t>underso</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75946-r326157866-Motel_6_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Julieta B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75946-r273153776-Motel_6_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>I don't expect much from a motel 6 cause I know that it's a budget hotel. But I do expect it to be at least clean. When we walked into our hotel room,  our restroom was filthy. There was pee on the toilet seat. Gross. Our neighbors where up all night arguing. I could swear the guy up stairs must have been some kind of Tweaker, because he was pacing all night long.  We could not sleep a wink.More</t>
   </si>
   <si>
+    <t>Delilah G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75946-r192008798-Motel_6_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>Tried to check in at 7 a.m. I usually can at any motel 6 I've stayed at. But the girl at front desk claimed all the rooms were full which I know was lie. Property was clean. Kind of in a ghetto area. You could tell because you had to use a room key to get inside to the INSIDE of the hotel where all the rooms are. Also they are doing construction and updating all the rooms which is great. But when you first enter the parking lot, there are signs saying "come check out or new rooms" like they were updated already. They weren't. That was the main reason I wanted to stay there. Very disappointed. Overall, a motel 6 is a motel 6. You really can't find anything cheaper. Only stayed one night. To sleep and shower. But like I said, wouldn't go back till renovations are done!More</t>
   </si>
   <si>
+    <t>Kannis M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75946-r168298285-Motel_6_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>We understood that cheap hotels aren't the best. But this on took the cake. The bad was not made. the nonsmoking room came complete with an ashtray and burn holes in the sheets and comforter. There was a dank musky, smokey odor. And there were bugs. We couldn't stay. The night registrar made it very difficult to get our money back. But when it was explained about my sisters allegic reation to smoke, she changed her mind. (Legal repercussions). Don't waste your time or effort. As all others said, keep driving.</t>
   </si>
   <si>
+    <t>31universal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75946-r155668200-Motel_6_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
   </si>
   <si>
@@ -316,6 +340,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>BusyMominAZ</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32038-d75946-r116194001-Motel_6_Los_Angeles_Baldwin_Park-Baldwin_Park_California.html</t>
@@ -841,43 +868,47 @@
       <c r="A2" t="n">
         <v>11150</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -891,50 +922,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>11150</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -948,41 +983,45 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>11150</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
@@ -1001,50 +1040,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>11150</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1064,50 +1107,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>11150</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1119,47 +1166,51 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>11150</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
@@ -1188,41 +1239,45 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>11150</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -1251,50 +1306,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>11150</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1318,50 +1377,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>11150</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1381,7 +1444,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
